--- a/Data and graphic.xlsx
+++ b/Data and graphic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Drenaje Batería Zigbee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{277D6133-08AF-4431-B4AF-D26F99E89A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7260232B-A230-486B-BA28-BBF5D91E99F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{40DF2B0D-EF26-48E5-B99F-C2415877F0F7}"/>
+    <workbookView xWindow="38280" yWindow="1695" windowWidth="29040" windowHeight="16440" xr2:uid="{40DF2B0D-EF26-48E5-B99F-C2415877F0F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Tiempo (Minutos)</t>
-  </si>
-  <si>
     <t>1msg/10min</t>
   </si>
   <si>
-    <t>1msg/1seg</t>
+    <t>Time(Minutes)</t>
   </si>
   <si>
-    <t>5msg/1seg</t>
+    <t>1msg/1sec</t>
+  </si>
+  <si>
+    <t>5msg/1sec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +67,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -112,6 +120,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,7 +159,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -164,7 +173,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Drenaje de batería</a:t>
+              <a:t>Battery Drain</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -182,7 +191,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -354,7 +363,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1msg/1seg</c:v>
+                  <c:v>1msg/1sec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -495,7 +504,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5msg/1seg</c:v>
+                  <c:v>5msg/1sec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -681,7 +690,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -743,7 +752,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -785,7 +794,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -825,7 +834,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr u="sng"/>
       </a:pPr>
       <a:endParaRPr lang="es-ES"/>
     </a:p>
@@ -1752,20 +1761,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9EEFF5-5B24-4A0B-895C-51142877F9EA}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1956,8 +1965,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data and graphic.xlsx
+++ b/Data and graphic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Drenaje Batería Zigbee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7260232B-A230-486B-BA28-BBF5D91E99F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2989A2B-8EE2-45BA-80FE-367E3F828E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1695" windowWidth="29040" windowHeight="16440" xr2:uid="{40DF2B0D-EF26-48E5-B99F-C2415877F0F7}"/>
   </bookViews>
@@ -713,6 +713,7 @@
         <c:axId val="1907785631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/Data and graphic.xlsx
+++ b/Data and graphic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Drenaje Batería Zigbee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2989A2B-8EE2-45BA-80FE-367E3F828E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC96E94-DCA0-462C-8BA3-F02786DB35E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1695" windowWidth="29040" windowHeight="16440" xr2:uid="{40DF2B0D-EF26-48E5-B99F-C2415877F0F7}"/>
   </bookViews>
@@ -77,12 +77,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -94,17 +106,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -112,15 +124,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1416,8 +1431,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1764,210 +1779,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9EEFF5-5B24-4A0B-895C-51142877F9EA}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>100</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>98</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>100</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>97</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>98</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>94</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>30</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>94</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>90</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>92</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>86</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>50</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>90</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>81</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>60</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>86</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>77</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>90</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>76</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>65</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>120</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>70</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>55</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>150</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>65</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>44</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>180</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>59</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>32</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>205</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>56</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>16</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>220</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>55</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N35" s="3"/>
+      <c r="N35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
